--- a/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
+++ b/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
@@ -39953,7 +39953,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2.7922</v>
+        <v>2.80666</v>
       </c>
     </row>
     <row r="4">
@@ -40011,13 +40011,13 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.05009</v>
+        <v>0.04998</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>16.25444</v>
+        <v>16.21791</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>50.24302</v>
+        <v>49.49757</v>
       </c>
     </row>
     <row r="8">
@@ -40081,7 +40081,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>7.60128</v>
+        <v>7.35215</v>
       </c>
     </row>
     <row r="12">
